--- a/sample/correlations.xlsx
+++ b/sample/correlations.xlsx
@@ -31,6 +31,9 @@
     <t>b</t>
   </si>
   <si>
+    <t>Cr Pb-LB</t>
+  </si>
+  <si>
     <t>Ca Hg</t>
   </si>
   <si>
@@ -43,31 +46,28 @@
     <t>Ca Cr</t>
   </si>
   <si>
-    <t>Cr Pb-LB</t>
-  </si>
-  <si>
     <t>Ca Pb-LB</t>
   </si>
   <si>
+    <t>Cr Zn-KB</t>
+  </si>
+  <si>
+    <t>Pb-LB Zn-KB</t>
+  </si>
+  <si>
     <t>Cr Hg</t>
   </si>
   <si>
-    <t>Cr Zn-KB</t>
+    <t>Hg Pb-LB</t>
+  </si>
+  <si>
+    <t>Ca Zn-KB</t>
+  </si>
+  <si>
+    <t>Pb-LB S</t>
   </si>
   <si>
     <t>Cr S</t>
-  </si>
-  <si>
-    <t>Pb-LB Zn-KB</t>
-  </si>
-  <si>
-    <t>Ca Zn-KB</t>
-  </si>
-  <si>
-    <t>Pb-LB S</t>
-  </si>
-  <si>
-    <t>Hg Pb-LB</t>
   </si>
   <si>
     <t>Hg Zn-KB</t>
@@ -468,16 +468,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="C2">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="D2">
-        <v>0.35</v>
+        <v>1.08</v>
       </c>
       <c r="E2">
-        <v>0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -485,16 +485,16 @@
         <v>6</v>
       </c>
       <c r="B3">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="C3">
-        <v>0.67</v>
+        <v>0.9</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>0.77</v>
       </c>
       <c r="E3">
-        <v>-0.26</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -502,16 +502,16 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.21</v>
+        <v>0.43</v>
       </c>
       <c r="C4">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
       <c r="D4">
-        <v>0.26</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E4">
-        <v>-0.02</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -519,10 +519,16 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0.03</v>
+        <v>0.21</v>
       </c>
       <c r="C5">
-        <v>0.16</v>
+        <v>0.45</v>
+      </c>
+      <c r="D5">
+        <v>0.33</v>
+      </c>
+      <c r="E5">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -533,7 +539,7 @@
         <v>0.01</v>
       </c>
       <c r="C6">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -555,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -566,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -577,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -588,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -610,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.07000000000000001</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -618,10 +624,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C14">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -629,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="C15">
-        <v>-0.3</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -640,16 +646,16 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
-        <v>-0.82</v>
+        <v>-0.8100000000000001</v>
       </c>
       <c r="D16">
-        <v>-0.55</v>
+        <v>-0.57</v>
       </c>
       <c r="E16">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
     </row>
   </sheetData>

--- a/sample/correlations.xlsx
+++ b/sample/correlations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>pair</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Ca S</t>
   </si>
   <si>
+    <t>VIS Zn-KB</t>
+  </si>
+  <si>
     <t>Ca Cr</t>
   </si>
   <si>
@@ -58,9 +61,15 @@
     <t>Cr Hg</t>
   </si>
   <si>
+    <t>Pb-LB VIS</t>
+  </si>
+  <si>
     <t>Hg Pb-LB</t>
   </si>
   <si>
+    <t>Cr VIS</t>
+  </si>
+  <si>
     <t>Ca Zn-KB</t>
   </si>
   <si>
@@ -70,7 +79,16 @@
     <t>Cr S</t>
   </si>
   <si>
+    <t>S VIS</t>
+  </si>
+  <si>
     <t>Hg Zn-KB</t>
+  </si>
+  <si>
+    <t>Ca VIS</t>
+  </si>
+  <si>
+    <t>Hg VIS</t>
   </si>
   <si>
     <t>S Zn-KB</t>
@@ -431,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -536,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="C6">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -547,10 +565,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C7">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -561,7 +579,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -572,7 +590,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -583,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -594,7 +612,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.05</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -605,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.06</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -616,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.06</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,10 +642,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>-0.08</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -635,10 +653,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>-0.29</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -646,15 +664,87 @@
         <v>19</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>-0.06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17">
+        <v>0.01</v>
+      </c>
+      <c r="C17">
+        <v>-0.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18">
+        <v>0.05</v>
+      </c>
+      <c r="C18">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>0.08</v>
+      </c>
+      <c r="C19">
+        <v>-0.29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0.1</v>
+      </c>
+      <c r="C21">
+        <v>-0.32</v>
+      </c>
+      <c r="D21">
+        <v>-0.4</v>
+      </c>
+      <c r="E21">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22">
         <v>0.65</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>-0.57</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>0.45</v>
       </c>
     </row>

--- a/sample/correlations.xlsx
+++ b/sample/correlations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>pair</t>
   </si>
@@ -43,9 +43,6 @@
     <t>Ca S</t>
   </si>
   <si>
-    <t>VIS Zn-KB</t>
-  </si>
-  <si>
     <t>Ca Cr</t>
   </si>
   <si>
@@ -61,15 +58,9 @@
     <t>Cr Hg</t>
   </si>
   <si>
-    <t>Pb-LB VIS</t>
-  </si>
-  <si>
     <t>Hg Pb-LB</t>
   </si>
   <si>
-    <t>Cr VIS</t>
-  </si>
-  <si>
     <t>Ca Zn-KB</t>
   </si>
   <si>
@@ -79,16 +70,7 @@
     <t>Cr S</t>
   </si>
   <si>
-    <t>S VIS</t>
-  </si>
-  <si>
     <t>Hg Zn-KB</t>
-  </si>
-  <si>
-    <t>Ca VIS</t>
-  </si>
-  <si>
-    <t>Hg VIS</t>
   </si>
   <si>
     <t>S Zn-KB</t>
@@ -449,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -554,10 +536,10 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="C6">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -565,10 +547,10 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -579,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -590,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -601,7 +583,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -612,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>-0.02</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -623,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>-0.03</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -634,7 +616,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>-0.05</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -642,10 +624,10 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="C14">
-        <v>-0.05</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -653,10 +635,10 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="C15">
-        <v>-0.06</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -664,87 +646,15 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C16">
-        <v>-0.06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>0.01</v>
-      </c>
-      <c r="C17">
-        <v>-0.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>0.05</v>
-      </c>
-      <c r="C18">
-        <v>-0.23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>0.08</v>
-      </c>
-      <c r="C19">
-        <v>-0.29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20">
-        <v>-0.31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
-      </c>
-      <c r="C21">
-        <v>-0.32</v>
-      </c>
-      <c r="D21">
-        <v>-0.4</v>
-      </c>
-      <c r="E21">
-        <v>0.21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>0.65</v>
-      </c>
-      <c r="C22">
         <v>-0.8100000000000001</v>
       </c>
-      <c r="D22">
+      <c r="D16">
         <v>-0.57</v>
       </c>
-      <c r="E22">
+      <c r="E16">
         <v>0.45</v>
       </c>
     </row>
